--- a/realme/March/All Details/25.03.2021/realme Bank Statement March-2021.xlsx
+++ b/realme/March/All Details/25.03.2021/realme Bank Statement March-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -346,7 +346,13 @@
     <t>City Bank</t>
   </si>
   <si>
-    <t>Date: 25.03.2021</t>
+    <t>26.03.2021</t>
+  </si>
+  <si>
+    <t>27.03.2021</t>
+  </si>
+  <si>
+    <t>Date: 27.03.2021</t>
   </si>
 </sst>
 </file>
@@ -2347,24 +2353,6 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2392,6 +2380,12 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2402,6 +2396,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2570,7 +2576,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2588,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2605,14 +2611,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2700,7 +2706,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2718,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2735,14 +2741,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3047,7 +3053,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3592,9 +3598,15 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0</v>
+      </c>
       <c r="E31" s="25">
         <f t="shared" si="0"/>
         <v>2267541</v>
@@ -4241,11 +4253,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="13" topLeftCell="S24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4257,73 +4269,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
     </row>
     <row r="2" spans="1:26" s="148" customFormat="1" ht="18">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
     </row>
     <row r="3" spans="1:26" s="149" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="257"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="258"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="252"/>
       <c r="U3" s="63"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4332,58 +4344,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="151" customFormat="1">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="248" t="s">
+      <c r="D4" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="248" t="s">
+      <c r="G4" s="257" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="248" t="s">
+      <c r="I4" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="248" t="s">
+      <c r="J4" s="257" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="248" t="s">
+      <c r="K4" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="248" t="s">
+      <c r="L4" s="257" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="248" t="s">
+      <c r="M4" s="257" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="248" t="s">
+      <c r="N4" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="250" t="s">
+      <c r="O4" s="263" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="252" t="s">
+      <c r="P4" s="265" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="265" t="s">
+      <c r="Q4" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="263" t="s">
+      <c r="R4" s="259" t="s">
         <v>48</v>
       </c>
       <c r="S4" s="150" t="s">
@@ -4396,24 +4408,24 @@
       <c r="Y4" s="153"/>
     </row>
     <row r="5" spans="1:26" s="151" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="260"/>
-      <c r="B5" s="262"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="264"/>
+      <c r="A5" s="254"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="260"/>
       <c r="S5" s="155" t="s">
         <v>49</v>
       </c>
@@ -5234,7 +5246,9 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:25" s="10" customFormat="1">
-      <c r="A28" s="159"/>
+      <c r="A28" s="159" t="s">
+        <v>95</v>
+      </c>
       <c r="B28" s="167"/>
       <c r="C28" s="160"/>
       <c r="D28" s="168"/>
@@ -5243,8 +5257,12 @@
       <c r="G28" s="168"/>
       <c r="H28" s="168"/>
       <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
+      <c r="J28" s="168">
+        <v>40</v>
+      </c>
+      <c r="K28" s="168">
+        <v>80</v>
+      </c>
       <c r="L28" s="168"/>
       <c r="M28" s="168"/>
       <c r="N28" s="201"/>
@@ -5254,7 +5272,7 @@
       <c r="R28" s="170"/>
       <c r="S28" s="164">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="T28" s="165"/>
       <c r="U28" s="4"/>
@@ -5505,11 +5523,11 @@
       </c>
       <c r="J37" s="186">
         <f t="shared" si="1"/>
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="K37" s="186">
         <f t="shared" si="1"/>
-        <v>3040</v>
+        <v>3120</v>
       </c>
       <c r="L37" s="186">
         <f t="shared" si="1"/>
@@ -5541,7 +5559,7 @@
       </c>
       <c r="S37" s="188">
         <f>SUM(S6:S36)</f>
-        <v>16345</v>
+        <v>16465</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -7546,6 +7564,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7562,11 +7585,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17688,8 +17706,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17732,7 +17750,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="283" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="284"/>
       <c r="C3" s="284"/>
@@ -17806,7 +17824,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="43">
-        <v>4297140</v>
+        <v>4062400</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="34"/>
@@ -17838,7 +17856,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="42">
-        <v>123690</v>
+        <v>129610</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
@@ -17880,7 +17898,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="43">
-        <v>540574</v>
+        <v>781114</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="34"/>
@@ -17947,7 +17965,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="42">
-        <v>16345</v>
+        <v>16465</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -18018,7 +18036,7 @@
       </c>
       <c r="B11" s="225">
         <f>B6-B8-B9-B10</f>
-        <v>107345</v>
+        <v>113145</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40" t="s">
@@ -18129,7 +18147,7 @@
       </c>
       <c r="B14" s="42">
         <f>B5+B6-B9-B10</f>
-        <v>7107345</v>
+        <v>7113145</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
@@ -18137,7 +18155,7 @@
       </c>
       <c r="E14" s="43">
         <f>E5+E6+E7+E9+E11+E12+E8</f>
-        <v>7107345</v>
+        <v>7113145</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="199">
